--- a/TestData/Staging/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,7 +230,7 @@
     <t>KB_13</t>
   </si>
   <si>
-    <t>307260624Wa9</t>
+    <t xml:space="preserve">	492200824ZFg</t>
   </si>
   <si>
     <t>B_KS_user3_p10</t>
@@ -315,17 +315,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -390,25 +385,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -421,46 +399,43 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,11 +693,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="K1">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A22">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.43" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -742,78 +717,78 @@
     <col min="22" max="22" width="11.43" customWidth="1"/>
     <col min="23" max="23" width="14.29" customWidth="1"/>
     <col min="24" max="25" width="11.43" customWidth="1"/>
-    <col min="26" max="26" width="19.10156" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.10156" customWidth="1"/>
     <col min="27" max="1021" width="11.43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -822,729 +797,729 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="4" ht="28.5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12" t="s">
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="R4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W4" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="5" ht="28.5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12" t="s">
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="4" t="s">
+      <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W5" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="1">
         <v>9874563281</v>
       </c>
     </row>
     <row r="6" ht="38.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="13">
-        <v>1</v>
-      </c>
-      <c r="K6" s="13">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="14">
+      <c r="N6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="11">
         <v>45384</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="4" t="s">
+      <c r="U6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W6" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="7" ht="25.5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="N7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="11">
         <v>45384</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="4" t="s">
+      <c r="S7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W7" t="s">
         <v>54</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="8" ht="25.5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="14">
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="11">
         <v>45384</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="4" t="s">
+      <c r="S8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W8" t="s">
         <v>56</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="9" ht="28.5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
         <v>2</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12" t="s">
+      <c r="N9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="4" t="s">
+      <c r="S9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W9" t="s">
         <v>59</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
         <v>2</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12" t="s">
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="4" t="s">
+      <c r="S10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W10" t="s">
         <v>62</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="11" ht="25.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="14">
+      <c r="N11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="11">
         <v>45384</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="4" t="s">
+      <c r="S11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W11" t="s">
@@ -1553,223 +1528,223 @@
       <c r="X11" t="s">
         <v>64</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="12" ht="25.5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="13">
-        <v>1</v>
-      </c>
-      <c r="K12" s="13">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="14">
+      <c r="N12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="11">
         <v>45384</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="4" t="s">
+      <c r="S12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W12" t="s">
         <v>66</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="13" ht="25.5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="N13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="11">
         <v>45384</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="Q13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="4" t="s">
+      <c r="S13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W13" t="s">
         <v>68</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="14" ht="25.5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="13">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="14">
+      <c r="N14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="11">
         <v>45384</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="4" t="s">
+      <c r="S14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W14" t="s">
@@ -1778,733 +1753,733 @@
       <c r="X14" t="s">
         <v>64</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="1">
         <v>6541258963</v>
       </c>
     </row>
     <row r="15" ht="25.5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="16">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="14">
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="11">
         <v>45384</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" s="4" t="s">
+      <c r="S15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W15" t="s">
         <v>68</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="1">
         <v>9874563281</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="9">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="10">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12" t="s">
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V16" s="4" t="s">
+      <c r="S16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="W16" t="s">
         <v>68</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="17" ht="38.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="13">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="14">
+      <c r="N17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="11">
         <v>45384</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="2" t="s">
+      <c r="U17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W17" t="s">
         <v>77</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="17">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="14">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="J18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="15">
+      <c r="N18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" s="2" t="s">
+      <c r="S18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W18" t="s">
         <v>79</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="9">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="9">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12" t="s">
+      <c r="N19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19" s="2" t="s">
+      <c r="S19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W19" t="s">
         <v>82</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="J20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="15">
+      <c r="N20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" s="2" t="s">
+      <c r="S20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W20" t="s">
         <v>47</v>
       </c>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="J21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="18">
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="15">
         <v>45384</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="S21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V21" s="2" t="s">
+      <c r="U21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W21" t="s">
         <v>56</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="22" ht="25.5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="13">
-        <v>1</v>
-      </c>
-      <c r="K22" s="13">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="14">
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="11">
         <v>45384</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="2" t="s">
+      <c r="S22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W22" t="s">
         <v>59</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="23" ht="25.5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="13">
-        <v>1</v>
-      </c>
-      <c r="K23" s="13">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="14">
+      <c r="N23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="11">
         <v>45384</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="2" t="s">
+      <c r="S23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W23" t="s">
         <v>62</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z23" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="24" ht="25.5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="13">
-        <v>1</v>
-      </c>
-      <c r="K24" s="13">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="14">
+      <c r="N24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="11">
         <v>45384</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V24" s="2" t="s">
+      <c r="S24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W24" t="s">
@@ -2513,525 +2488,525 @@
       <c r="X24" t="s">
         <v>64</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="Z24" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="25" ht="25.5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="13">
-        <v>1</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="14">
+      <c r="N25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="11">
         <v>45384</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="Q25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V25" s="2" t="s">
+      <c r="S25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W25" t="s">
         <v>66</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="Z25" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="26" ht="25.5">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="13">
-        <v>1</v>
-      </c>
-      <c r="K26" s="13">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="14">
+      <c r="N26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="11">
         <v>45384</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="Q26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V26" s="2" t="s">
+      <c r="S26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W26" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="Z26" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="27" ht="25.5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="13">
-        <v>1</v>
-      </c>
-      <c r="K27" s="13">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4" t="s">
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="14">
+      <c r="N27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="11">
         <v>45384</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V27" s="2" t="s">
+      <c r="S27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W27" t="s">
         <v>68</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="Z27" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="28" ht="25.5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="13">
-        <v>1</v>
-      </c>
-      <c r="K28" s="13">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="14">
+      <c r="N28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="11">
         <v>45384</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="14" t="s">
+      <c r="Q28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V28" s="2" t="s">
+      <c r="S28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W28" t="s">
         <v>68</v>
       </c>
-      <c r="Z28" s="8">
+      <c r="Z28" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="29" ht="25.5">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="13">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13">
-        <v>1</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="14">
+      <c r="N29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="11">
         <v>45384</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q29" s="14" t="s">
+      <c r="Q29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V29" s="2" t="s">
+      <c r="S29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>76</v>
       </c>
       <c r="W29" t="s">
         <v>68</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="Z29" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="30" ht="25.5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="13">
-        <v>1</v>
-      </c>
-      <c r="K30" s="13">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="14">
+      <c r="N30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="11">
         <v>45384</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V30" s="2" t="s">
+      <c r="S30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>94</v>
       </c>
       <c r="W30" t="s">
         <v>77</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="Z30" s="1">
         <v>9874563228</v>
       </c>
     </row>
     <row r="31" ht="25.5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="3">
-        <v>123456</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="13">
-        <v>1</v>
-      </c>
-      <c r="K31" s="13">
-        <v>1</v>
-      </c>
-      <c r="L31" s="4" t="s">
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="14">
+      <c r="N31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="11">
         <v>45384</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="Q31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="12">
         <v>7709577438</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V31" s="2" t="s">
+      <c r="S31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>94</v>
       </c>
       <c r="W31" t="s">
         <v>38</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="Z31" s="1">
         <v>9874563228</v>
       </c>
     </row>
